--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -327,18 +327,121 @@
   <si>
     <t>Houseperson</t>
   </si>
+  <si>
+    <t>//div[@row-index='4']/div[1]/span[1]/span[4]/div[1]/div[1]/label[1]/span[1]/input[1]</t>
+  </si>
+  <si>
+    <t>Bell Person</t>
+  </si>
+  <si>
+    <t>//div[@row-index='6']/div[1]/span[1]/span[4]/div[1]/div[1]/label[1]/span[1]/input[1]</t>
+  </si>
+  <si>
+    <t>Door Person</t>
+  </si>
+  <si>
+    <t>//div[@row-index='10']/div[1]/span[1]/span[4]/div[1]/div[1]/label[1]/span[1]/input[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO Agent </t>
+  </si>
+  <si>
+    <t>//div[@row-index='9']/div[1]/span[1]/span[4]/div[1]/div[1]/label[1]/span[1]/input[1]</t>
+  </si>
+  <si>
+    <t>Res Agent</t>
+  </si>
+  <si>
+    <t>6/31/2021</t>
+  </si>
+  <si>
+    <t>Weekly Contract Hours</t>
+  </si>
+  <si>
+    <t>Contract Days</t>
+  </si>
+  <si>
+    <t>Annual Rate</t>
+  </si>
+  <si>
+    <t>Piece Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hourly
+</t>
+  </si>
+  <si>
+    <t>Piece  Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piece
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaried Non Exempt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaried Non Exempt
+</t>
+  </si>
+  <si>
+    <t>Salaried  Exempt</t>
+  </si>
+  <si>
+    <t>Salary Dist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary Dist
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rate</t>
+  </si>
+  <si>
+    <t>SEar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25
+</t>
+  </si>
+  <si>
+    <t>Salary 8</t>
+  </si>
+  <si>
+    <t>ZNo Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary 8
+</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SEAnnual Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -354,7 +457,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -369,11 +472,18 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
@@ -387,6 +497,12 @@
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,7 +821,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A3" sqref="A3" activeCellId="0"/>
+      <selection activeCell="A4" sqref="A4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -715,7 +831,14 @@
     <col min="9" max="9" width="72.1797" customWidth="1" bestFit="1"/>
     <col min="10" max="10" width="15" customWidth="1" bestFit="1"/>
     <col min="12" max="12" width="9.81641" customWidth="1"/>
+    <col min="13" max="13" width="9.54297" customWidth="1"/>
     <col min="14" max="14" width="17.9063" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" width="11.1797" customWidth="1"/>
+    <col min="16" max="16" width="19.0898" customWidth="1"/>
+    <col min="17" max="17" width="12.2695" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" width="10.9063" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" width="14.3633" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" width="12.7266" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -761,10 +884,31 @@
       <c r="N1" t="s">
         <v>42</v>
       </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>123900</v>
+      <c r="A2" s="0">
+        <v>985687</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -782,7 +926,7 @@
         <v>43666</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>82</v>
@@ -797,15 +941,18 @@
         <v>4</v>
       </c>
       <c r="M2" s="1">
-        <v>44454</v>
-      </c>
-      <c r="N2" t="s">
-        <v>45</v>
+        <v>44089</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>223890</v>
+      <c r="A3" s="0">
+        <v>985689</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -841,15 +988,21 @@
         <v>3</v>
       </c>
       <c r="M3" s="1">
-        <v>44217</v>
+        <v>44311</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="S3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3">
+        <v>7654</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>723967</v>
+      <c r="A4" s="0">
+        <v>985685</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -875,8 +1028,8 @@
       <c r="J4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
+      <c r="K4" s="1">
+        <v>44048</v>
       </c>
       <c r="L4" s="4">
         <v>2</v>
@@ -887,10 +1040,19 @@
       <c r="N4" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="P4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>8679</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>134567</v>
+      <c r="A5" s="0">
+        <v>985685</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -923,15 +1085,18 @@
         <v>5</v>
       </c>
       <c r="M5" s="1">
-        <v>43741</v>
+        <v>43474</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>9.56</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>143252</v>
+      <c r="A6" s="0">
+        <v>985685</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -952,10 +1117,10 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K6" s="1">
         <v>44359</v>
@@ -964,15 +1129,24 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="P6">
+        <v>35</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4578</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>234563</v>
+      <c r="A7" s="0">
+        <v>985685</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -993,27 +1167,30 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="K7" s="1">
-        <v>43442</v>
+        <v>44538</v>
       </c>
       <c r="L7" s="4">
         <v>4</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>71</v>
+      <c r="M7" s="1">
+        <v>44539</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>345678</v>
+      <c r="A8" s="0">
+        <v>985685</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1034,10 +1211,10 @@
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1">
         <v>44197</v>
@@ -1046,15 +1223,21 @@
         <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>44359</v>
+        <v>44208</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>45</v>
+        <v>118</v>
+      </c>
+      <c r="S8" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8">
+        <v>4567</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>789012</v>
+      <c r="A9" s="0">
+        <v>985685</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1075,27 +1258,30 @@
         <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="K9" s="1">
-        <v>44366</v>
+        <v>44356</v>
       </c>
       <c r="L9" s="4">
         <v>5</v>
       </c>
       <c r="M9" s="1">
-        <v>44356</v>
+        <v>44366</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>345256</v>
+      <c r="A10" s="0">
+        <v>985685</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1128,15 +1314,24 @@
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>44095</v>
+        <v>44064</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>3456</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>635677</v>
+      <c r="A11" s="0">
+        <v>985685</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1157,10 +1352,10 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K11" s="1">
         <v>44325</v>
@@ -1169,10 +1364,16 @@
         <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>44246</v>
+        <v>44335</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T11">
+        <v>7568</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A4" sqref="A4" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="L1">
+      <selection activeCell="O11" sqref="O11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>985687</v>
+        <v>985213</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>985689</v>
+        <v>985214</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1226,7 +1226,7 @@
         <v>44208</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="S8" t="s">
         <v>126</v>

--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -425,12 +425,74 @@
   <si>
     <t>SEAnnual Rate</t>
   </si>
+  <si>
+    <t>Last Name
+koshika
+narvate
+kattera
+robert
+gujjarlla
+ciramdasu
+marojju
+jorla
+john
+tom</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>koshika@gmail.com</t>
+  </si>
+  <si>
+    <t>narvate@gmail.com</t>
+  </si>
+  <si>
+    <t>kattera@gmail.com</t>
+  </si>
+  <si>
+    <t>robert@gmail.com</t>
+  </si>
+  <si>
+    <t>gujjarlla@gmail.com</t>
+  </si>
+  <si>
+    <t>ciramdasu@gmail.com</t>
+  </si>
+  <si>
+    <t>marojju@gmail.com</t>
+  </si>
+  <si>
+    <t>jorla@gmail.com</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>tom@gmail.com</t>
+  </si>
+  <si>
+    <t>Tipped</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNo Distribution
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +510,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -457,7 +531,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -479,11 +553,18 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
@@ -503,6 +584,12 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,25 +907,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="L1">
-      <selection activeCell="O11" sqref="O11" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="A11" sqref="A11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.1797" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" width="15" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" width="9.81641" customWidth="1"/>
-    <col min="13" max="13" width="9.54297" customWidth="1"/>
-    <col min="14" max="14" width="17.9063" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" width="11.1797" customWidth="1"/>
-    <col min="16" max="16" width="19.0898" customWidth="1"/>
-    <col min="17" max="17" width="12.2695" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" width="10.9063" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" width="14.3633" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" width="12.7266" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="12" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="19.543" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" width="72.1797" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="15" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" width="9.81641" customWidth="1"/>
+    <col min="15" max="15" width="9.54297" customWidth="1"/>
+    <col min="16" max="16" width="17.9063" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" width="11.1797" customWidth="1"/>
+    <col min="18" max="18" width="19.0898" customWidth="1"/>
+    <col min="19" max="19" width="12.2695" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" width="10.9063" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" width="14.3633" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" width="12.7266" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -854,61 +944,67 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>129</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>985213</v>
+        <v>982346</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -916,43 +1012,49 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="1">
         <v>43661</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>43666</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>44037</v>
       </c>
-      <c r="L2" s="0">
+      <c r="N2" s="0">
         <v>4</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <v>44089</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>985214</v>
+        <v>976544</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -963,46 +1065,52 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1">
         <v>42846</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>42856</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>44307</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>44311</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>125</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>7654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>985685</v>
+        <v>976547</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1010,49 +1118,55 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="1">
         <v>44048</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>44058</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" t="s">
         <v>84</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>44048</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>44068</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>124</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>5</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>8679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>985685</v>
+        <v>976537</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1060,43 +1174,49 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="1">
         <v>42027</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>42058</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" t="s">
         <v>94</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>43468</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>43474</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>9.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>985685</v>
+        <v>976538</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1104,49 +1224,55 @@
       <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="1">
         <v>41792</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>41814</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" t="s">
         <v>100</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>44359</v>
       </c>
-      <c r="L6" s="4">
+      <c r="N6" s="4">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="P6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>35</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>4578</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>985685</v>
+        <v>976539</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1154,43 +1280,49 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="1">
         <v>38694</v>
       </c>
-      <c r="G7" s="1">
-        <v>38704</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1">
+        <v>38695</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" t="s">
         <v>102</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>44538</v>
       </c>
-      <c r="L7" s="4">
+      <c r="N7" s="4">
         <v>4</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>44539</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>985685</v>
+        <v>976540</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1198,46 +1330,52 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="1">
         <v>43176</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>43207</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>44197</v>
       </c>
-      <c r="L8" s="4">
+      <c r="N8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>44208</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>126</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>4567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>985685</v>
+        <v>976541</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1245,43 +1383,49 @@
       <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="1">
         <v>44356</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>44369</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>44356</v>
       </c>
-      <c r="L9" s="4">
+      <c r="N9" s="4">
         <v>5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>44366</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="P9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>985685</v>
+        <v>976542</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1289,49 +1433,55 @@
       <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="1">
         <v>42572</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>42605</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>97</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>44033</v>
       </c>
-      <c r="L10" s="4">
+      <c r="N10" s="4">
         <v>3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>44064</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>30</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>6</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <v>3456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>985685</v>
+        <v>976543</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
@@ -1339,44 +1489,62 @@
       <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="1">
         <v>41314</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>41326</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>105</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>44325</v>
       </c>
-      <c r="L11" s="4">
+      <c r="N11" s="4">
         <v>2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>44335</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="P11" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="S11" t="s">
-        <v>127</v>
-      </c>
-      <c r="T11">
+      <c r="U11" t="s">
+        <v>146</v>
+      </c>
+      <c r="V11">
         <v>7568</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" display="koshika@gmail.com" r:id="rId1"/>
+    <hyperlink ref="F3" display="narvate@gmail.com" r:id="rId2"/>
+    <hyperlink ref="F4" display="kattera@gmail.com" r:id="rId3"/>
+    <hyperlink ref="F5" display="robert@gmail.com" r:id="rId4"/>
+    <hyperlink ref="F6" display="gujjarlla@gmail.com" r:id="rId5"/>
+    <hyperlink ref="F7" display="ciramdasu@gmail.com" r:id="rId6"/>
+    <hyperlink ref="F8" display="marojju@gmail.com" r:id="rId7"/>
+    <hyperlink ref="F9" display="jorla@gmail.com" r:id="rId8"/>
+    <hyperlink ref="F10" display="john@gmail.com" r:id="rId9"/>
+    <hyperlink ref="F11" display="tom@gmail.com" r:id="rId10"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="A11" sqref="A11" activeCellId="0"/>
+      <selection activeCell="I13" sqref="I13" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>982346</v>
+        <v>987651</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1054,7 +1054,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>976544</v>
+        <v>987652</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1078,7 +1078,7 @@
         <v>42856</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>144</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>976547</v>
+        <v>987653</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>976537</v>
+        <v>987654</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>976538</v>
+        <v>987655</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>976539</v>
+        <v>987656</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>976540</v>
+        <v>987657</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>976541</v>
+        <v>987658</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>976542</v>
+        <v>987659</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>976543</v>
+        <v>987650</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>

--- a/src/test/java/com/pack/testData/AddEmployee.xlsx
+++ b/src/test/java/com/pack/testData/AddEmployee.xlsx
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="I13" sqref="I13" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="N1">
+      <selection activeCell="P2" sqref="P2:W11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1048,7 +1048,7 @@
       <c r="P2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="0">
         <v>8</v>
       </c>
     </row>
@@ -1101,10 +1101,10 @@
       <c r="P3" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="0">
         <v>7654</v>
       </c>
     </row>
@@ -1154,13 +1154,13 @@
       <c r="P4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="0">
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="0">
         <v>8679</v>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="P5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="0">
         <v>9.56</v>
       </c>
     </row>
@@ -1260,13 +1260,13 @@
       <c r="P6" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="0">
         <v>35</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="0">
         <v>4</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="0">
         <v>4578</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       <c r="P7" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="0">
         <v>5</v>
       </c>
     </row>
@@ -1366,10 +1366,10 @@
       <c r="P8" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="0">
         <v>4567</v>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       <c r="P9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1469,13 +1469,13 @@
       <c r="P10" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="0">
         <v>30</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="0">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="0">
         <v>3456</v>
       </c>
     </row>
@@ -1525,10 +1525,10 @@
       <c r="P11" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="0">
         <v>7568</v>
       </c>
     </row>
